--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.156219</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N2">
-        <v>0.468657</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O2">
-        <v>0.02370067533399361</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P2">
-        <v>0.02639406479478576</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q2">
-        <v>7.959395386341001</v>
+        <v>6.678846312824889</v>
       </c>
       <c r="R2">
-        <v>71.63455847706901</v>
+        <v>60.109616815424</v>
       </c>
       <c r="S2">
-        <v>0.003602517150329703</v>
+        <v>0.001161196899833719</v>
       </c>
       <c r="T2">
-        <v>0.004067057418030874</v>
+        <v>0.001508987944187379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.137322</v>
       </c>
       <c r="O3">
-        <v>0.6643737391741328</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P3">
-        <v>0.7398744243614509</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q3">
-        <v>223.116565239986</v>
+        <v>157.1364309739449</v>
       </c>
       <c r="R3">
-        <v>2008.049087159874</v>
+        <v>1414.227878765504</v>
       </c>
       <c r="S3">
-        <v>0.1009852148040117</v>
+        <v>0.027320038214909</v>
       </c>
       <c r="T3">
-        <v>0.1140071371880932</v>
+        <v>0.0355026854678475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.015348</v>
+        <v>8.733703</v>
       </c>
       <c r="N4">
-        <v>0.046044</v>
+        <v>17.467406</v>
       </c>
       <c r="O4">
-        <v>0.00232851295313716</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P4">
-        <v>0.00259312955831475</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q4">
-        <v>0.7819842681720001</v>
+        <v>313.3933046490987</v>
       </c>
       <c r="R4">
-        <v>7.037858413548</v>
+        <v>1880.359827894592</v>
       </c>
       <c r="S4">
-        <v>0.0003539353934109185</v>
+        <v>0.05448715492799798</v>
       </c>
       <c r="T4">
-        <v>0.0003995749380801173</v>
+        <v>0.04720443185888207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.0178425</v>
+        <v>0.033591</v>
       </c>
       <c r="N5">
-        <v>4.035685</v>
+        <v>0.100773</v>
       </c>
       <c r="O5">
-        <v>0.3061358091373905</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P5">
-        <v>0.2272837733808414</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q5">
-        <v>102.8095576393575</v>
+        <v>1.205352929504</v>
       </c>
       <c r="R5">
-        <v>616.857345836145</v>
+        <v>10.848176365536</v>
       </c>
       <c r="S5">
-        <v>0.04653283027617745</v>
+        <v>0.0002095649487034744</v>
       </c>
       <c r="T5">
-        <v>0.03502212196998215</v>
+        <v>0.0002723319199035691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>45.591472</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02281433333333333</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N6">
-        <v>0.06844299999999999</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O6">
-        <v>0.003461263401345812</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P6">
-        <v>0.003854607904607254</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q6">
-        <v>1.162395735959</v>
+        <v>2.828606368700444</v>
       </c>
       <c r="R6">
-        <v>10.461561623631</v>
+        <v>25.45745731830399</v>
       </c>
       <c r="S6">
-        <v>0.0005261141545309594</v>
+        <v>0.0004917868734122177</v>
       </c>
       <c r="T6">
-        <v>0.0005939559440321749</v>
+        <v>0.0006390823668190192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.156219</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N7">
-        <v>0.468657</v>
+        <v>13.137322</v>
       </c>
       <c r="O7">
-        <v>0.02370067533399361</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P7">
-        <v>0.02639406479478576</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q7">
-        <v>2.374084721456</v>
+        <v>66.54998312422043</v>
       </c>
       <c r="R7">
-        <v>21.366762493104</v>
+        <v>598.9498481179839</v>
       </c>
       <c r="S7">
-        <v>0.001074539020898256</v>
+        <v>0.01157050641207908</v>
       </c>
       <c r="T7">
-        <v>0.001213099539445058</v>
+        <v>0.01503599836209543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.379107333333333</v>
+        <v>8.733703</v>
       </c>
       <c r="N8">
-        <v>13.137322</v>
+        <v>17.467406</v>
       </c>
       <c r="O8">
-        <v>0.6643737391741328</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P8">
-        <v>0.7398744243614509</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q8">
-        <v>66.54998312422043</v>
+        <v>132.7274585936053</v>
       </c>
       <c r="R8">
-        <v>598.9498481179839</v>
+        <v>796.3647515616319</v>
       </c>
       <c r="S8">
-        <v>0.03012131498965153</v>
+        <v>0.02307624793607731</v>
       </c>
       <c r="T8">
-        <v>0.03400542244699518</v>
+        <v>0.01999188936725886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015348</v>
+        <v>0.033591</v>
       </c>
       <c r="N9">
-        <v>0.046044</v>
+        <v>0.100773</v>
       </c>
       <c r="O9">
-        <v>0.00232851295313716</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P9">
-        <v>0.00259312955831475</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q9">
-        <v>0.233245970752</v>
+        <v>0.510487711984</v>
       </c>
       <c r="R9">
-        <v>2.099213736768</v>
+        <v>4.594389407855999</v>
       </c>
       <c r="S9">
-        <v>0.0001055699043826067</v>
+        <v>8.875436277381687E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001191830169915487</v>
+        <v>0.0001153372554119815</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.19715733333333</v>
+        <v>177.70077</v>
       </c>
       <c r="H10">
-        <v>45.591472</v>
+        <v>533.10231</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.0178425</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N10">
-        <v>4.035685</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O10">
-        <v>0.3061358091373905</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P10">
-        <v>0.2272837733808414</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q10">
-        <v>30.66546994638666</v>
+        <v>33.07497045138</v>
       </c>
       <c r="R10">
-        <v>183.99281967832</v>
+        <v>297.67473406242</v>
       </c>
       <c r="S10">
-        <v>0.01387955693146729</v>
+        <v>0.005750477155985024</v>
       </c>
       <c r="T10">
-        <v>0.01044620610562805</v>
+        <v>0.007472807327464365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.19715733333333</v>
+        <v>177.70077</v>
       </c>
       <c r="H11">
-        <v>45.591472</v>
+        <v>533.10231</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02281433333333333</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N11">
-        <v>0.06844299999999999</v>
+        <v>13.137322</v>
       </c>
       <c r="O11">
-        <v>0.003461263401345812</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P11">
-        <v>0.003854607904607254</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q11">
-        <v>0.3467130131217777</v>
+        <v>778.17074504598</v>
       </c>
       <c r="R11">
-        <v>3.120417118095999</v>
+        <v>7003.53670541382</v>
       </c>
       <c r="S11">
-        <v>0.0001569264391811908</v>
+        <v>0.135294243102069</v>
       </c>
       <c r="T11">
-        <v>0.0001771619153842534</v>
+        <v>0.1758163338088599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156219</v>
+        <v>8.733703</v>
       </c>
       <c r="N12">
-        <v>0.468657</v>
+        <v>17.467406</v>
       </c>
       <c r="O12">
-        <v>0.02370067533399361</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P12">
-        <v>0.02639406479478576</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q12">
-        <v>19.4105700537</v>
+        <v>1551.98574805131</v>
       </c>
       <c r="R12">
-        <v>174.6951304833</v>
+        <v>9311.914488307861</v>
       </c>
       <c r="S12">
-        <v>0.008785455191248688</v>
+        <v>0.2698311886235116</v>
       </c>
       <c r="T12">
-        <v>0.009918329105824165</v>
+        <v>0.2337657008080401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.379107333333333</v>
+        <v>0.033591</v>
       </c>
       <c r="N13">
-        <v>13.137322</v>
+        <v>0.100773</v>
       </c>
       <c r="O13">
-        <v>0.6643737391741328</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P13">
-        <v>0.7398744243614509</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q13">
-        <v>544.1141581135333</v>
+        <v>5.969146565070001</v>
       </c>
       <c r="R13">
-        <v>4897.0274230218</v>
+        <v>53.72231908563</v>
       </c>
       <c r="S13">
-        <v>0.2462725485035017</v>
+        <v>0.001037807154313855</v>
       </c>
       <c r="T13">
-        <v>0.2780290983921805</v>
+        <v>0.001348641633882479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>20.074196</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>40.148392</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.015348</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N14">
-        <v>0.046044</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O14">
-        <v>0.00232851295313716</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P14">
-        <v>0.00259312955831475</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q14">
-        <v>1.9070243004</v>
+        <v>3.736356570290666</v>
       </c>
       <c r="R14">
-        <v>17.1632187036</v>
+        <v>22.418139421744</v>
       </c>
       <c r="S14">
-        <v>0.0008631419115170681</v>
+        <v>0.0006496100468375344</v>
       </c>
       <c r="T14">
-        <v>0.0009744430262400175</v>
+        <v>0.0005627835263432112</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>20.074196</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>40.148392</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0178425</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N15">
-        <v>4.035685</v>
+        <v>13.137322</v>
       </c>
       <c r="O15">
-        <v>0.3061358091373905</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P15">
-        <v>0.2272837733808414</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q15">
-        <v>250.72157166275</v>
+        <v>87.90705891437067</v>
       </c>
       <c r="R15">
-        <v>1504.3294299765</v>
+        <v>527.442353486224</v>
       </c>
       <c r="S15">
-        <v>0.1134795694937698</v>
+        <v>0.0152836881556708</v>
       </c>
       <c r="T15">
-        <v>0.08540841595759371</v>
+        <v>0.01324087882823273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>20.074196</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>40.148392</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.02281433333333333</v>
+        <v>8.733703</v>
       </c>
       <c r="N16">
-        <v>0.06844299999999999</v>
+        <v>17.467406</v>
       </c>
       <c r="O16">
-        <v>0.003461263401345812</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P16">
-        <v>0.003854607904607254</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q16">
-        <v>2.834733389633333</v>
+        <v>175.322065827788</v>
       </c>
       <c r="R16">
-        <v>25.5126005067</v>
+        <v>701.288263311152</v>
       </c>
       <c r="S16">
-        <v>0.001283034094560913</v>
+        <v>0.03048182721628804</v>
       </c>
       <c r="T16">
-        <v>0.001448479802904732</v>
+        <v>0.01760509533750831</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.156219</v>
+        <v>0.033591</v>
       </c>
       <c r="N17">
-        <v>0.468657</v>
+        <v>0.100773</v>
       </c>
       <c r="O17">
-        <v>0.02370067533399361</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P17">
-        <v>0.02639406479478576</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q17">
-        <v>2.129949990315</v>
+        <v>0.6743123178360001</v>
       </c>
       <c r="R17">
-        <v>12.77969994189</v>
+        <v>4.045873907016</v>
       </c>
       <c r="S17">
-        <v>0.0009640407338756162</v>
+        <v>0.0001172372197706209</v>
       </c>
       <c r="T17">
-        <v>0.0007255684205202501</v>
+        <v>0.000101567357651544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>182.547562</v>
+      </c>
+      <c r="H18">
+        <v>547.642686</v>
+      </c>
+      <c r="I18">
+        <v>0.423148670749767</v>
+      </c>
+      <c r="J18">
+        <v>0.4298154468296114</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>13.634385</v>
-      </c>
-      <c r="H18">
-        <v>27.26877</v>
-      </c>
-      <c r="I18">
-        <v>0.04067566515680267</v>
-      </c>
-      <c r="J18">
-        <v>0.02748983251202704</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.379107333333333</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N18">
-        <v>13.137322</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O18">
-        <v>0.6643737391741328</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P18">
-        <v>0.7398744243614509</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q18">
-        <v>59.70643533898999</v>
+        <v>33.97709092156133</v>
       </c>
       <c r="R18">
-        <v>358.23861203394</v>
+        <v>305.793818294052</v>
       </c>
       <c r="S18">
-        <v>0.02702384375361998</v>
+        <v>0.005907321533619464</v>
       </c>
       <c r="T18">
-        <v>0.02033902400562871</v>
+        <v>0.007676628294432014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>182.547562</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>547.642686</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.015348</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N19">
-        <v>0.046044</v>
+        <v>13.137322</v>
       </c>
       <c r="O19">
-        <v>0.00232851295313716</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P19">
-        <v>0.00259312955831475</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q19">
-        <v>0.20926054098</v>
+        <v>799.3953674363212</v>
       </c>
       <c r="R19">
-        <v>1.25556324588</v>
+        <v>7194.558306926892</v>
       </c>
       <c r="S19">
-        <v>9.471381319508484E-05</v>
+        <v>0.1389843962461052</v>
       </c>
       <c r="T19">
-        <v>7.128469724005914E-05</v>
+        <v>0.1806117277746492</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>182.547562</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>547.642686</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0178425</v>
+        <v>8.733703</v>
       </c>
       <c r="N20">
-        <v>4.035685</v>
+        <v>17.467406</v>
       </c>
       <c r="O20">
-        <v>0.3061358091373905</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P20">
-        <v>0.2272837733808414</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q20">
-        <v>27.5120415143625</v>
+        <v>1594.316189882086</v>
       </c>
       <c r="R20">
-        <v>110.04816605745</v>
+        <v>9565.897139292516</v>
       </c>
       <c r="S20">
-        <v>0.01245227766497935</v>
+        <v>0.2771908396051642</v>
       </c>
       <c r="T20">
-        <v>0.00624799286294084</v>
+        <v>0.240141664899534</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>182.547562</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>547.642686</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.02281433333333333</v>
+        <v>0.033591</v>
       </c>
       <c r="N21">
-        <v>0.06844299999999999</v>
+        <v>0.100773</v>
       </c>
       <c r="O21">
-        <v>0.003461263401345812</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P21">
-        <v>0.003854607904607254</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q21">
-        <v>0.3110594041849999</v>
+        <v>6.131955155142</v>
       </c>
       <c r="R21">
-        <v>1.86635642511</v>
+        <v>55.187596396278</v>
       </c>
       <c r="S21">
-        <v>0.0001407891911326381</v>
+        <v>0.001066113364878227</v>
       </c>
       <c r="T21">
-        <v>0.0001059625256971889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H22">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I22">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J22">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.156219</v>
-      </c>
-      <c r="N22">
-        <v>0.468657</v>
-      </c>
-      <c r="O22">
-        <v>0.02370067533399361</v>
-      </c>
-      <c r="P22">
-        <v>0.02639406479478576</v>
-      </c>
-      <c r="Q22">
-        <v>20.490232420763</v>
-      </c>
-      <c r="R22">
-        <v>184.412091786867</v>
-      </c>
-      <c r="S22">
-        <v>0.009274123237641346</v>
-      </c>
-      <c r="T22">
-        <v>0.01047001031096542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H23">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I23">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J23">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.379107333333333</v>
-      </c>
-      <c r="N23">
-        <v>13.137322</v>
-      </c>
-      <c r="O23">
-        <v>0.6643737391741328</v>
-      </c>
-      <c r="P23">
-        <v>0.7398744243614509</v>
-      </c>
-      <c r="Q23">
-        <v>574.3790899664423</v>
-      </c>
-      <c r="R23">
-        <v>5169.411809697981</v>
-      </c>
-      <c r="S23">
-        <v>0.2599708171233479</v>
-      </c>
-      <c r="T23">
-        <v>0.2934937423285534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H24">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I24">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J24">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.015348</v>
-      </c>
-      <c r="N24">
-        <v>0.046044</v>
-      </c>
-      <c r="O24">
-        <v>0.00232851295313716</v>
-      </c>
-      <c r="P24">
-        <v>0.00259312955831475</v>
-      </c>
-      <c r="Q24">
-        <v>2.013097556596</v>
-      </c>
-      <c r="R24">
-        <v>18.117878009364</v>
-      </c>
-      <c r="S24">
-        <v>0.0009111519306314813</v>
-      </c>
-      <c r="T24">
-        <v>0.001028643879763007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H25">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I25">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J25">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.0178425</v>
-      </c>
-      <c r="N25">
-        <v>4.035685</v>
-      </c>
-      <c r="O25">
-        <v>0.3061358091373905</v>
-      </c>
-      <c r="P25">
-        <v>0.2272837733808414</v>
-      </c>
-      <c r="Q25">
-        <v>264.6673055997891</v>
-      </c>
-      <c r="R25">
-        <v>1588.003833598735</v>
-      </c>
-      <c r="S25">
-        <v>0.1197915747709965</v>
-      </c>
-      <c r="T25">
-        <v>0.09015903648469663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>131.1635103333333</v>
-      </c>
-      <c r="H26">
-        <v>393.4905309999999</v>
-      </c>
-      <c r="I26">
-        <v>0.3913020665845575</v>
-      </c>
-      <c r="J26">
-        <v>0.3966804807205673</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.02281433333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.06844299999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.003461263401345812</v>
-      </c>
-      <c r="P26">
-        <v>0.003854607904607254</v>
-      </c>
-      <c r="Q26">
-        <v>2.992408045914777</v>
-      </c>
-      <c r="R26">
-        <v>26.93167241323299</v>
-      </c>
-      <c r="S26">
-        <v>0.001354399521940111</v>
-      </c>
-      <c r="T26">
-        <v>0.001529047716588904</v>
+        <v>0.001385425860996231</v>
       </c>
     </row>
   </sheetData>
